--- a/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15832.65848474106</v>
+        <v>15977.12711525563</v>
       </c>
       <c r="B2" t="n">
-        <v>27965.65642948063</v>
+        <v>29849.14824628064</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>132330.9433961941</v>
+        <v>130561.33776026</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661605</v>
+        <v>80959.2571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65082.08537464032</v>
+        <v>64251.52279541099</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38982.80677829464</v>
+        <v>40111.28994154878</v>
       </c>
       <c r="B2" t="n">
-        <v>64192.74284434001</v>
+        <v>65322.58173581541</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>346143.046823482</v>
+        <v>340833.9912939204</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>140183.8899915883</v>
+        <v>141324.1323737949</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51523.04519598683</v>
+        <v>56025.16122751532</v>
       </c>
       <c r="B2" t="n">
-        <v>209954.0833969409</v>
+        <v>207449.585816139</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>668228.3249122428</v>
+        <v>657198.7126679525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>98349.74754759351</v>
+        <v>96189.68304409613</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15832.65848474106</v>
+        <v>13246.3894556564</v>
       </c>
       <c r="B2" t="n">
-        <v>27965.65642948063</v>
+        <v>4963.3841664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>132330.9433961941</v>
+        <v>149166.874138857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661605</v>
+        <v>80959.25712661822</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65082.08537464032</v>
+        <v>61345.70576785101</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38982.80677829464</v>
+        <v>54263.04703986392</v>
       </c>
       <c r="B2" t="n">
-        <v>64192.74284434001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>346143.046823482</v>
+        <v>342227.637160617</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>140183.8899915883</v>
+        <v>126052.6350814245</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51523.04519598683</v>
+        <v>36768.8977900178</v>
       </c>
       <c r="B2" t="n">
-        <v>209954.0833969409</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>668228.3249122428</v>
+        <v>496846.6605987189</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>98349.74754759351</v>
+        <v>116157.9124867162</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13246.3894556564</v>
+        <v>13542.66239954146</v>
       </c>
       <c r="B2" t="n">
-        <v>4963.3841664</v>
+        <v>7388.713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149166.874138857</v>
+        <v>145938.1080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661822</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61345.70576785101</v>
+        <v>60752.70249736184</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54263.04703986392</v>
+        <v>56523.46054342125</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>342227.637160617</v>
+        <v>334687.659297556</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>126052.6350814245</v>
+        <v>126709.0925117385</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36768.8977900178</v>
+        <v>39160.51891814119</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>496846.6605987189</v>
+        <v>490718.9879254698</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116157.9124867162</v>
+        <v>113564.0301500868</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149166.874138857</v>
+        <v>149166.8741388572</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661822</v>
+        <v>80959.25712661735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61345.70576785101</v>
+        <v>61345.70576785118</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54263.04703986392</v>
+        <v>54263.04703986398</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>342227.637160617</v>
+        <v>342227.6371606169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>126052.6350814245</v>
+        <v>126052.6350814246</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36768.8977900178</v>
+        <v>36768.89779001973</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>496846.6605987189</v>
+        <v>496846.6605987171</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116157.9124867162</v>
+        <v>116157.9124867139</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13246.3894556564</v>
+        <v>13542.66239954147</v>
       </c>
       <c r="B2" t="n">
-        <v>4963.3841664</v>
+        <v>7388.713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149166.8741388572</v>
+        <v>145938.1080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661735</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61345.70576785118</v>
+        <v>60752.70249736184</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54263.04703986398</v>
+        <v>56523.46054342134</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>342227.6371606169</v>
+        <v>334687.6592975559</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>126052.6350814246</v>
+        <v>126709.0925117386</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36768.89779001973</v>
+        <v>39160.51891814145</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>496846.6605987171</v>
+        <v>490718.987925473</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116157.9124867139</v>
+        <v>113564.030150086</v>
       </c>
     </row>
   </sheetData>
